--- a/data/trans_orig/Q24A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q24A01-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>16.39774457026941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16.65234123705562</v>
+        <v>16.65234123705561</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>13.23183943591858</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.81409269792903</v>
+        <v>18.05154064912079</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.24019828559254</v>
+        <v>17.36089732508398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.21025325065578</v>
+        <v>15.11482783410468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.30909622507639</v>
+        <v>15.2957178547207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>11.99575192326023</v>
+        <v>12.00870694476877</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.98991162880376</v>
+        <v>12.07812993686241</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.24091289302515</v>
+        <v>10.2724957636257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.665992015121132</v>
+        <v>9.869202654328845</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.21298364245741</v>
+        <v>16.22777758052978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15.49994916774251</v>
+        <v>15.59298314336339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13.60111541314176</v>
+        <v>13.54752458555684</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>13.46723024550123</v>
+        <v>13.539734034463</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.1527525295289</v>
+        <v>20.26676128888405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.95309483780656</v>
+        <v>19.99968077007996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.78378038106981</v>
+        <v>17.75638502250856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.15737840068152</v>
+        <v>18.16992442754472</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.59719706434973</v>
+        <v>14.65018782854829</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.54518991908389</v>
+        <v>14.53832186264896</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.98206983205167</v>
+        <v>12.95522846218385</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.85585265714792</v>
+        <v>12.07972561098837</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.13567350575203</v>
+        <v>18.08357328286429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.53177609245849</v>
+        <v>17.62483187513243</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15.56830120165198</v>
+        <v>15.55143613382159</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>15.55898574556015</v>
+        <v>15.57761015465067</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>11.11381601981538</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>9.790206577585968</v>
+        <v>9.790206577585966</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>14.80769058481934</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.79993893307154</v>
+        <v>15.7573234516306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>14.70812031544833</v>
+        <v>14.67857435884628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13.48501876084311</v>
+        <v>13.42886574244075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.49571219726686</v>
+        <v>12.4143218605519</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>11.75946591762161</v>
+        <v>11.81393610819148</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.12023693476534</v>
+        <v>12.15606384570687</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.56906163244549</v>
+        <v>10.55075169236553</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.284319561098739</v>
+        <v>9.323720646022219</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>14.35873059643119</v>
+        <v>14.331545913932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13.80198515038898</v>
+        <v>13.84867969930087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12.2608043334219</v>
+        <v>12.34874903194485</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>11.26891133413374</v>
+        <v>11.27743839209171</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.98548964458154</v>
+        <v>17.00373432443994</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.9722888811444</v>
+        <v>15.97698099416518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.71589842570783</v>
+        <v>14.61261901249797</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.07238747598155</v>
+        <v>14.00211190760413</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>13.10824826590257</v>
+        <v>13.12357877077543</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>13.36758397953789</v>
+        <v>13.40302851690223</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>11.6937347841516</v>
+        <v>11.72814576773696</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>10.28474325767721</v>
+        <v>10.25335727818204</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>15.27119788291311</v>
+        <v>15.26759781671881</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14.70083353964815</v>
+        <v>14.73157787597703</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13.1456488096847</v>
+        <v>13.1298343534516</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>12.23555013133757</v>
+        <v>12.22087071032237</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>9.629635796477132</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.935853967679679</v>
+        <v>7.935853967679678</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>13.57849136608425</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13.22546305907711</v>
+        <v>13.14191143154766</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.47380028620767</v>
+        <v>13.53719944235089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.16708053186958</v>
+        <v>10.129637088106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.00095896768085</v>
+        <v>10.73042902722424</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.98135024191458</v>
+        <v>10.9789720001446</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.522167595108412</v>
+        <v>9.613130980768704</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.534836157749059</v>
+        <v>8.551120973895998</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.017863008545167</v>
+        <v>7.149222318643177</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.5868057816065</v>
+        <v>12.68678847040685</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11.92737995954893</v>
+        <v>11.87599830612713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.730055948387507</v>
+        <v>9.679453664832057</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>9.096151911743387</v>
+        <v>9.191641681343375</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.74100591925682</v>
+        <v>15.74176180191958</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.73491489300108</v>
+        <v>16.88176842819196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.00808439661048</v>
+        <v>13.00466472833244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.69852582443569</v>
+        <v>15.69452934367822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.36172835722981</v>
+        <v>14.25845403832541</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.16938133552364</v>
+        <v>12.37348845764929</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.86087113094817</v>
+        <v>10.90310452962233</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.030924994731572</v>
+        <v>9.009164356400168</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.60324139894364</v>
+        <v>14.75641382411083</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14.37822141187274</v>
+        <v>14.16156854152358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11.63458797121043</v>
+        <v>11.63778117439237</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>11.72937118663846</v>
+        <v>11.5942357770946</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.30067797116634</v>
+        <v>16.28793861000338</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.48198636898002</v>
+        <v>15.58596513537353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13.66135972237084</v>
+        <v>13.69299200746005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13.0544890012903</v>
+        <v>13.07644767806356</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>12.0773983994034</v>
+        <v>12.04238162310341</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.11559708366078</v>
+        <v>12.1058386303579</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.52837894786306</v>
+        <v>10.49342691632915</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.233761370668947</v>
+        <v>9.203967718822744</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>14.81004280076169</v>
+        <v>14.87383800952891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14.20554025643015</v>
+        <v>14.22197470421247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12.40241593260839</v>
+        <v>12.40367369428708</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>11.4813748476</v>
+        <v>11.53303472252415</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.34363302424286</v>
+        <v>17.31066829008946</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.65325077485015</v>
+        <v>16.69035849583213</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.71911466660647</v>
+        <v>14.70862669838526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.4344883684713</v>
+        <v>14.38973352451032</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>13.20103269987392</v>
+        <v>13.17399422255611</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>13.14100411095778</v>
+        <v>13.13311077501685</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.49790086597498</v>
+        <v>11.43160380562018</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>9.997657712366539</v>
+        <v>10.08038475617264</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>15.61884346172862</v>
+        <v>15.61871238522999</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15.00220960162472</v>
+        <v>15.02159807351921</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.12301891547884</v>
+        <v>13.1549893682209</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>12.30638357838571</v>
+        <v>12.38476378506249</v>
       </c>
     </row>
     <row r="16">
